--- a/Specification file/證券/華南證卷API欄位輸出文件_v2.xlsx
+++ b/Specification file/證券/華南證卷API欄位輸出文件_v2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592A2AA-1B43-574F-B70C-CF6E4D818E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客戶資料" sheetId="9" r:id="rId1"/>
@@ -326,8 +327,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +393,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,6 +580,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +625,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -885,19 +907,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.796875" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -917,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="31" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -937,7 +962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="31" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -957,7 +982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="31" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -977,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="61" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="31" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="31" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -1085,24 +1110,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="91" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="31" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="49" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="31" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -1202,7 +1227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17" thickBot="1">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -1222,27 +1247,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:6" ht="31" thickBot="1">
+      <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17" thickBot="1">
       <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
@@ -1262,7 +1287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="31" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="31" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1309,23 +1334,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="31" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
@@ -1376,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="31" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>78</v>
       </c>
@@ -1393,7 +1418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="31" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>80</v>
       </c>
@@ -1410,7 +1435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="31" thickBot="1">
       <c r="A6" s="17" t="s">
         <v>82</v>
       </c>
@@ -1427,7 +1452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="31" thickBot="1">
       <c r="A7" s="17" t="s">
         <v>84</v>
       </c>

--- a/Specification file/證券/華南證卷API欄位輸出文件_v2.xlsx
+++ b/Specification file/證券/華南證卷API欄位輸出文件_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592A2AA-1B43-574F-B70C-CF6E4D818E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952212F4-4550-1F49-B556-04B788C384B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34660" yWindow="3280" windowWidth="27980" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客戶資料" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>Field</t>
   </si>
@@ -321,6 +321,26 @@
   </si>
   <si>
     <t>根據2016-2018每日報價進行生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>股票代號</t>
+  </si>
+  <si>
+    <t>成交日</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>買賣別(S/B)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別(0/1/2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1111,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1125,9 +1145,10 @@
     <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:9" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="91" thickBot="1">
+    <row r="2" spans="1:9" ht="91" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
@@ -1167,7 +1188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31" thickBot="1">
+    <row r="3" spans="1:9" ht="31" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49" thickBot="1">
+    <row r="4" spans="1:9" ht="49" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" thickBot="1">
+    <row r="5" spans="1:9" ht="31" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1">
+    <row r="6" spans="1:9" ht="17" thickBot="1">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -1247,7 +1268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31" thickBot="1">
+    <row r="7" spans="1:9" ht="31" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
@@ -1267,7 +1288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1">
+    <row r="8" spans="1:9" ht="17" thickBot="1">
       <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31" thickBot="1">
+    <row r="9" spans="1:9" ht="31" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31" thickBot="1">
+    <row r="10" spans="1:9" ht="31" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1325,6 +1346,64 @@
       </c>
       <c r="F10" s="12" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>38200</v>
+      </c>
+      <c r="B13">
+        <v>5234</v>
+      </c>
+      <c r="C13">
+        <v>1070102</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <v>69.7</v>
+      </c>
+      <c r="I13">
+        <v>69700</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
